--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$278</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="699">
   <si>
     <t>编号</t>
   </si>
@@ -4936,6 +4936,74 @@
   </si>
   <si>
     <r>
+      <t>【最近使用文件】接上条。再选择刚才读完的书进入，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断点未更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新，仍是之前的=》应该从头读。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【我的收藏】现象同上条。读完一本后，自动读下一本。若该“下一本”是拆分多部分的大文档，则按返回键退到文件列表后，再选择刚才读完的书进入，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断点未更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新，仍是之前的=》应该从头读。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复检已修改txt。新增编号264~272记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【我的收藏】列表中实际有文件列不出来，提示无文件。后来又列出来了，中间没有做外设插拔动作。出现一次。规律不清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>【最近使用文件】读完一本后，自动读下一本。若该“下一本”是拆分多部分的大文档，则按返回键退到最近使用文件列表后，</t>
     </r>
     <r>
@@ -4963,71 +5031,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【最近使用文件】接上条。再选择刚才读完的书进入，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断点未更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新，仍是之前的=》应该从头读。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【我的收藏】现象同上条。读完一本后，自动读下一本。若该“下一本”是拆分多部分的大文档，则按返回键退到文件列表后，再选择刚才读完的书进入，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断点未更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新，仍是之前的=》应该从头读。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【我的收藏】列表中实际有文件列不出来，提示无文件。后来又列出来了，中间没有做外设插拔动作。出现一次。规律不清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复检已修改txt。新增编号264~272记录。</t>
+    <t>自动下一本，大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签，大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于拆分多个部分的大文档，书签名建议增加对“部分”的区分。“第x部分第x页 xxx”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分多个部分的大文档。在第2部分插入的书签，查看书签跳转后，跳到第1部分的相应页码。而且会出现反显半个字。见附图。（【样例】大唐双龙传160M.txt，第2部分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上条。查看书签跳转后，页码播报不对。会先播报下跳转前所在的页码（这个播报是多余的，应去掉），再播报跳转后的页码。（【样例】大唐双龙传160M.txt，第2部分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上条。查看书签跳转，跳到第1部分朗读后，再退回到“部分”列表，反显位置与实际朗读的部分不一致，仍是跳转书签前所在的部分。（【样例】大唐双龙传160M.txt，第2部分）
+=》反显应该跟随实际朗读的部分更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复检已修改txt。新增编号273~276记录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7806,10 +7839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8160,141 +8193,158 @@
         <v>42695</v>
       </c>
       <c r="F20" s="374" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="138"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="149"/>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="379" customFormat="1">
+      <c r="B21" s="371">
+        <v>19</v>
+      </c>
+      <c r="C21" s="370">
+        <v>42698</v>
+      </c>
+      <c r="D21" s="372" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="369">
+        <v>42695</v>
+      </c>
+      <c r="F21" s="374" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="140"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="150"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="E24" s="279" t="s">
+      <c r="B22" s="138"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="149"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="140"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="150"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="E25" s="279" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="27">
-      <c r="E25" s="302">
+    <row r="26" spans="2:6" ht="27">
+      <c r="E26" s="302">
         <v>78</v>
       </c>
-      <c r="F25" s="360" t="s">
+      <c r="F26" s="360" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="302" customFormat="1">
-      <c r="C26" s="157"/>
-      <c r="E26" s="302">
-        <v>246</v>
-      </c>
-      <c r="F26" s="360" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" s="302" customFormat="1" ht="27">
+    <row r="27" spans="2:6" s="302" customFormat="1">
       <c r="C27" s="157"/>
       <c r="E27" s="302">
+        <v>246</v>
+      </c>
+      <c r="F27" s="360" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="302" customFormat="1" ht="27">
+      <c r="C28" s="157"/>
+      <c r="E28" s="302">
         <v>250</v>
       </c>
-      <c r="F27" s="362" t="s">
+      <c r="F28" s="362" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="E28">
+    <row r="29" spans="2:6">
+      <c r="E29">
         <v>263</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="367" customFormat="1">
-      <c r="C29" s="157"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="E30" s="302" t="s">
+    <row r="30" spans="2:6" s="367" customFormat="1">
+      <c r="C30" s="157"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="E31" s="302" t="s">
         <v>576</v>
       </c>
-      <c r="F30" s="157"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="E32" s="302"/>
-      <c r="F32" s="360"/>
+      <c r="F31" s="157"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="279" t="s">
+      <c r="E33" s="302"/>
+      <c r="F33" s="360"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="279" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="B34">
+    <row r="35" spans="1:9">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C34" s="157">
+      <c r="C35" s="157">
         <v>42657</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D35" s="157" t="s">
         <v>411</v>
       </c>
-      <c r="E34" s="279" t="s">
+      <c r="E35" s="279" t="s">
         <v>418</v>
       </c>
-      <c r="F34" s="279" t="s">
+      <c r="F35" s="279" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27">
-      <c r="F35" s="275" t="s">
+    <row r="36" spans="1:9" ht="27">
+      <c r="F36" s="275" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="D36" s="367" t="s">
+    <row r="37" spans="1:9">
+      <c r="D37" s="367" t="s">
         <v>618</v>
       </c>
-      <c r="E36" s="367" t="s">
+      <c r="E37" s="367" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="D37" s="379" t="s">
+    <row r="38" spans="1:9">
+      <c r="D38" s="379" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="361" customFormat="1" ht="67.5">
-      <c r="A39" s="356">
+    <row r="40" spans="1:9" s="361" customFormat="1" ht="67.5">
+      <c r="A40" s="356">
         <v>251</v>
       </c>
-      <c r="B39" s="368" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="368" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="375">
+      <c r="B40" s="368" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="368" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="375">
         <v>42666</v>
       </c>
-      <c r="E39" s="373">
+      <c r="E40" s="373">
         <v>42669</v>
       </c>
-      <c r="F39" s="373" t="s">
+      <c r="F40" s="373" t="s">
         <v>572</v>
       </c>
-      <c r="G39" s="362" t="s">
+      <c r="G40" s="362" t="s">
         <v>592</v>
       </c>
-      <c r="H39" s="368" t="s">
+      <c r="H40" s="368" t="s">
         <v>269</v>
       </c>
-      <c r="I39" s="361" t="s">
+      <c r="I40" s="361" t="s">
         <v>593</v>
       </c>
     </row>
@@ -8308,13 +8358,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P274"/>
+  <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H271" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C280" sqref="C280"/>
+      <selection pane="bottomRight" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19191,7 +19241,7 @@
         <v>682</v>
       </c>
       <c r="G270" s="345" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="271" spans="1:16" s="380" customFormat="1" ht="27">
@@ -19214,7 +19264,7 @@
         <v>682</v>
       </c>
       <c r="G271" s="345" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5">
@@ -19234,13 +19284,13 @@
         <v>42695</v>
       </c>
       <c r="F272" s="380" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="G272" s="345" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" s="380" customFormat="1" ht="27">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" s="380" customFormat="1" ht="27">
       <c r="A273" s="356">
         <v>271</v>
       </c>
@@ -19263,7 +19313,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="380" customFormat="1" ht="27">
+    <row r="274" spans="1:8" s="380" customFormat="1" ht="27">
       <c r="A274" s="356">
         <v>272</v>
       </c>
@@ -19280,14 +19330,118 @@
         <v>42695</v>
       </c>
       <c r="F274" s="446" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G274" s="363" t="s">
         <v>689</v>
       </c>
     </row>
+    <row r="275" spans="1:8" s="380" customFormat="1">
+      <c r="A275" s="356">
+        <v>273</v>
+      </c>
+      <c r="B275" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="387" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="402">
+        <v>42695</v>
+      </c>
+      <c r="E275" s="373">
+        <v>42695</v>
+      </c>
+      <c r="F275" s="380" t="s">
+        <v>692</v>
+      </c>
+      <c r="G275" s="345" t="s">
+        <v>694</v>
+      </c>
+      <c r="H275" s="380" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" s="380" customFormat="1" ht="27">
+      <c r="A276" s="356">
+        <v>274</v>
+      </c>
+      <c r="B276" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="387" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="402">
+        <v>42695</v>
+      </c>
+      <c r="E276" s="373">
+        <v>42695</v>
+      </c>
+      <c r="F276" s="380" t="s">
+        <v>692</v>
+      </c>
+      <c r="G276" s="363" t="s">
+        <v>695</v>
+      </c>
+      <c r="H276" s="380" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" s="380" customFormat="1" ht="27">
+      <c r="A277" s="356">
+        <v>275</v>
+      </c>
+      <c r="B277" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="C277" s="387" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" s="402">
+        <v>42695</v>
+      </c>
+      <c r="E277" s="373">
+        <v>42695</v>
+      </c>
+      <c r="F277" s="380" t="s">
+        <v>692</v>
+      </c>
+      <c r="G277" s="345" t="s">
+        <v>696</v>
+      </c>
+      <c r="H277" s="380" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" s="380" customFormat="1" ht="40.5">
+      <c r="A278" s="356">
+        <v>276</v>
+      </c>
+      <c r="B278" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" s="387" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278" s="402">
+        <v>42695</v>
+      </c>
+      <c r="E278" s="373">
+        <v>42695</v>
+      </c>
+      <c r="F278" s="380" t="s">
+        <v>692</v>
+      </c>
+      <c r="G278" s="345" t="s">
+        <v>697</v>
+      </c>
+      <c r="H278" s="380" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Y273">
+  <autoFilter ref="A2:Y278">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="705">
   <si>
     <t>编号</t>
   </si>
@@ -5061,6 +5061,30 @@
   </si>
   <si>
     <t>复检已修改txt。新增编号273~276记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j/z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没发现显示一下主菜单的问题，有会朗读一下部分列表界面标题的问题。修改了这个问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7841,7 +7865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -8360,11 +8384,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H271" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="L252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C284" sqref="C284"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8375,8 +8399,8 @@
     <col min="4" max="4" width="11.625" style="210" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="210" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="210" customWidth="1"/>
-    <col min="7" max="7" width="77.375" style="203" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="210" customWidth="1"/>
+    <col min="7" max="7" width="74.5" style="203" customWidth="1"/>
+    <col min="8" max="8" width="63.125" style="210" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="210" customWidth="1"/>
     <col min="10" max="10" width="5.625" style="210" customWidth="1"/>
     <col min="11" max="11" width="9.25" style="210" bestFit="1" customWidth="1"/>
@@ -18444,7 +18468,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="40.5">
+    <row r="248" spans="1:16" ht="40.5" hidden="1">
       <c r="A248" s="356">
         <v>246</v>
       </c>
@@ -19071,7 +19095,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="81">
+    <row r="264" spans="1:16" ht="81" hidden="1">
       <c r="A264" s="356">
         <v>262</v>
       </c>
@@ -19096,8 +19120,11 @@
       <c r="H264" s="368" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5">
+      <c r="P264" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5" hidden="1">
       <c r="A265" s="356">
         <v>263</v>
       </c>
@@ -19122,8 +19149,11 @@
       <c r="H265" s="368" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" ht="54">
+      <c r="P265" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" ht="54" hidden="1">
       <c r="A266" s="356">
         <v>264</v>
       </c>
@@ -19148,8 +19178,17 @@
       <c r="H266" s="368" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" s="380" customFormat="1" ht="54">
+      <c r="L266" s="380" t="s">
+        <v>702</v>
+      </c>
+      <c r="O266" s="420">
+        <v>42707</v>
+      </c>
+      <c r="P266" s="380" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
       <c r="A267" s="356">
         <v>265</v>
       </c>
@@ -19174,8 +19213,17 @@
       <c r="H267" s="387" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="L267" s="380" t="s">
+        <v>702</v>
+      </c>
+      <c r="O267" s="420">
+        <v>42707</v>
+      </c>
+      <c r="P267" s="380" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" ht="27" hidden="1">
       <c r="A268" s="356">
         <v>266</v>
       </c>
@@ -19197,8 +19245,17 @@
       <c r="G268" s="345" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" s="380" customFormat="1" ht="27">
+      <c r="L268" s="380" t="s">
+        <v>702</v>
+      </c>
+      <c r="O268" s="420">
+        <v>42707</v>
+      </c>
+      <c r="P268" s="380" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A269" s="356">
         <v>267</v>
       </c>
@@ -19220,8 +19277,20 @@
       <c r="G269" s="345" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" s="380" customFormat="1" ht="27">
+      <c r="L269" s="380" t="s">
+        <v>703</v>
+      </c>
+      <c r="N269" s="380" t="s">
+        <v>704</v>
+      </c>
+      <c r="O269" s="420">
+        <v>42707</v>
+      </c>
+      <c r="P269" s="380" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A270" s="356">
         <v>268</v>
       </c>
@@ -19243,8 +19312,11 @@
       <c r="G270" s="345" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" s="380" customFormat="1" ht="27">
+      <c r="P270" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A271" s="356">
         <v>269</v>
       </c>
@@ -19266,8 +19338,11 @@
       <c r="G271" s="345" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5">
+      <c r="P271" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A272" s="356">
         <v>270</v>
       </c>
@@ -19289,8 +19364,11 @@
       <c r="G272" s="345" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" s="380" customFormat="1" ht="27">
+      <c r="P272" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A273" s="356">
         <v>271</v>
       </c>
@@ -19312,8 +19390,11 @@
       <c r="G273" s="345" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" s="380" customFormat="1" ht="27">
+      <c r="P273" s="380" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A274" s="356">
         <v>272</v>
       </c>
@@ -19335,8 +19416,11 @@
       <c r="G274" s="363" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" s="380" customFormat="1">
+      <c r="P274" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" s="380" customFormat="1" hidden="1">
       <c r="A275" s="356">
         <v>273</v>
       </c>
@@ -19361,8 +19445,11 @@
       <c r="H275" s="380" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" s="380" customFormat="1" ht="27">
+      <c r="P275" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A276" s="356">
         <v>274</v>
       </c>
@@ -19387,8 +19474,11 @@
       <c r="H276" s="380" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" s="380" customFormat="1" ht="27">
+      <c r="P276" s="380" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A277" s="356">
         <v>275</v>
       </c>
@@ -19413,8 +19503,11 @@
       <c r="H277" s="380" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" s="380" customFormat="1" ht="40.5">
+      <c r="P277" s="380" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A278" s="356">
         <v>276</v>
       </c>
@@ -19438,6 +19531,9 @@
       </c>
       <c r="H278" s="380" t="s">
         <v>693</v>
+      </c>
+      <c r="P278" s="380" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -19445,7 +19541,14 @@
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="z"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="706">
   <si>
     <t>编号</t>
   </si>
@@ -5085,6 +5085,10 @@
   </si>
   <si>
     <t>没发现显示一下主菜单的问题，有会朗读一下部分列表界面标题的问题。修改了这个问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7865,7 +7869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -8385,10 +8389,10 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="O273" sqref="O273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8637,7 +8641,7 @@
       </c>
       <c r="P6" s="411"/>
     </row>
-    <row r="7" spans="1:16" s="234" customFormat="1" ht="27" hidden="1">
+    <row r="7" spans="1:16" s="234" customFormat="1" ht="40.5" hidden="1">
       <c r="A7" s="240">
         <v>5</v>
       </c>
@@ -8837,7 +8841,7 @@
       <c r="O11" s="399"/>
       <c r="P11" s="410"/>
     </row>
-    <row r="12" spans="1:16" s="70" customFormat="1" ht="40.5" hidden="1">
+    <row r="12" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A12" s="240">
         <v>10</v>
       </c>
@@ -8985,7 +8989,7 @@
       </c>
       <c r="P15" s="411"/>
     </row>
-    <row r="16" spans="1:16" s="234" customFormat="1" ht="27" hidden="1">
+    <row r="16" spans="1:16" s="234" customFormat="1" ht="40.5" hidden="1">
       <c r="A16" s="240">
         <v>14</v>
       </c>
@@ -9101,7 +9105,7 @@
       </c>
       <c r="P18" s="394"/>
     </row>
-    <row r="19" spans="1:16" s="296" customFormat="1" ht="229.5" hidden="1">
+    <row r="19" spans="1:16" s="296" customFormat="1" ht="243" hidden="1">
       <c r="A19" s="283">
         <v>17</v>
       </c>
@@ -9411,7 +9415,7 @@
       <c r="O26" s="397"/>
       <c r="P26" s="411"/>
     </row>
-    <row r="27" spans="1:16" s="234" customFormat="1" ht="135" hidden="1">
+    <row r="27" spans="1:16" s="234" customFormat="1" ht="148.5" hidden="1">
       <c r="A27" s="240">
         <v>25</v>
       </c>
@@ -9497,7 +9501,7 @@
       </c>
       <c r="P28" s="422"/>
     </row>
-    <row r="29" spans="1:16" s="296" customFormat="1" ht="135" hidden="1">
+    <row r="29" spans="1:16" s="296" customFormat="1" ht="148.5" hidden="1">
       <c r="A29" s="283">
         <v>27</v>
       </c>
@@ -9569,7 +9573,7 @@
       <c r="O30" s="392"/>
       <c r="P30" s="394"/>
     </row>
-    <row r="31" spans="1:16" s="187" customFormat="1" ht="54" hidden="1">
+    <row r="31" spans="1:16" s="187" customFormat="1" ht="67.5" hidden="1">
       <c r="A31" s="240">
         <v>29</v>
       </c>
@@ -10193,7 +10197,7 @@
       </c>
       <c r="P46" s="411"/>
     </row>
-    <row r="47" spans="1:16" s="207" customFormat="1" ht="121.5" hidden="1">
+    <row r="47" spans="1:16" s="207" customFormat="1" ht="135" hidden="1">
       <c r="A47" s="240">
         <v>45</v>
       </c>
@@ -10387,7 +10391,7 @@
       <c r="O51" s="397"/>
       <c r="P51" s="411"/>
     </row>
-    <row r="52" spans="1:16" s="227" customFormat="1" ht="67.5" hidden="1">
+    <row r="52" spans="1:16" s="227" customFormat="1" ht="81" hidden="1">
       <c r="A52" s="221">
         <v>50</v>
       </c>
@@ -11231,7 +11235,7 @@
       </c>
       <c r="P72" s="411"/>
     </row>
-    <row r="73" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
+    <row r="73" spans="1:16" s="170" customFormat="1" ht="67.5" hidden="1">
       <c r="A73" s="240">
         <v>71</v>
       </c>
@@ -11593,7 +11597,7 @@
       </c>
       <c r="P81" s="394"/>
     </row>
-    <row r="82" spans="1:16" s="296" customFormat="1" ht="67.5" hidden="1">
+    <row r="82" spans="1:16" s="296" customFormat="1" ht="81" hidden="1">
       <c r="A82" s="283">
         <v>80</v>
       </c>
@@ -11791,7 +11795,7 @@
       <c r="O86" s="392"/>
       <c r="P86" s="394"/>
     </row>
-    <row r="87" spans="1:16" s="319" customFormat="1" ht="189" hidden="1">
+    <row r="87" spans="1:16" s="319" customFormat="1" ht="202.5" hidden="1">
       <c r="A87" s="312">
         <v>85</v>
       </c>
@@ -12493,7 +12497,7 @@
       </c>
       <c r="P104" s="394"/>
     </row>
-    <row r="105" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
+    <row r="105" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A105" s="240">
         <v>103</v>
       </c>
@@ -13140,7 +13144,7 @@
       </c>
       <c r="P120" s="394"/>
     </row>
-    <row r="121" spans="1:16" s="187" customFormat="1" ht="121.5" hidden="1">
+    <row r="121" spans="1:16" s="187" customFormat="1" ht="135" hidden="1">
       <c r="A121" s="240">
         <v>119</v>
       </c>
@@ -13908,7 +13912,7 @@
       </c>
       <c r="P139" s="394"/>
     </row>
-    <row r="140" spans="1:16" s="227" customFormat="1" ht="54" hidden="1">
+    <row r="140" spans="1:16" s="227" customFormat="1" ht="67.5" hidden="1">
       <c r="A140" s="240">
         <v>138</v>
       </c>
@@ -13948,7 +13952,7 @@
       </c>
       <c r="P140" s="394"/>
     </row>
-    <row r="141" spans="1:16" s="234" customFormat="1" ht="81" hidden="1">
+    <row r="141" spans="1:16" s="234" customFormat="1" ht="94.5" hidden="1">
       <c r="A141" s="240">
         <v>139</v>
       </c>
@@ -14064,7 +14068,7 @@
       <c r="O143" s="395"/>
       <c r="P143" s="394"/>
     </row>
-    <row r="144" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
+    <row r="144" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A144" s="240">
         <v>142</v>
       </c>
@@ -14132,7 +14136,7 @@
       <c r="O145" s="395"/>
       <c r="P145" s="394"/>
     </row>
-    <row r="146" spans="1:16" s="296" customFormat="1" ht="54" hidden="1">
+    <row r="146" spans="1:16" s="296" customFormat="1" ht="67.5" hidden="1">
       <c r="A146" s="283">
         <v>144</v>
       </c>
@@ -14174,7 +14178,7 @@
       </c>
       <c r="P146" s="422"/>
     </row>
-    <row r="147" spans="1:16" s="296" customFormat="1" hidden="1">
+    <row r="147" spans="1:16" s="296" customFormat="1" ht="27" hidden="1">
       <c r="A147" s="283">
         <v>145</v>
       </c>
@@ -14380,7 +14384,7 @@
       </c>
       <c r="P151" s="411"/>
     </row>
-    <row r="152" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
+    <row r="152" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A152" s="240">
         <v>150</v>
       </c>
@@ -14598,7 +14602,7 @@
       </c>
       <c r="P156" s="411"/>
     </row>
-    <row r="157" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
+    <row r="157" spans="1:16" s="207" customFormat="1" ht="67.5" hidden="1">
       <c r="A157" s="240">
         <v>155</v>
       </c>
@@ -14726,7 +14730,7 @@
       </c>
       <c r="P159" s="421"/>
     </row>
-    <row r="160" spans="1:16" s="234" customFormat="1" ht="27" hidden="1">
+    <row r="160" spans="1:16" s="234" customFormat="1" ht="40.5" hidden="1">
       <c r="A160" s="240">
         <v>158</v>
       </c>
@@ -15106,7 +15110,7 @@
       </c>
       <c r="P168" s="388"/>
     </row>
-    <row r="169" spans="1:16" s="319" customFormat="1" ht="67.5" hidden="1">
+    <row r="169" spans="1:16" s="319" customFormat="1" ht="81" hidden="1">
       <c r="A169" s="312">
         <v>167</v>
       </c>
@@ -15814,7 +15818,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="348" customFormat="1" ht="27" hidden="1">
+    <row r="186" spans="1:16" s="348" customFormat="1" ht="40.5" hidden="1">
       <c r="A186" s="358">
         <v>184</v>
       </c>
@@ -17440,7 +17444,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="348" customFormat="1" ht="67.5" hidden="1">
+    <row r="223" spans="1:16" s="348" customFormat="1" ht="81" hidden="1">
       <c r="A223" s="358">
         <v>221</v>
       </c>
@@ -19223,7 +19227,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" hidden="1">
+    <row r="268" spans="1:16" hidden="1">
       <c r="A268" s="356">
         <v>266</v>
       </c>
@@ -19390,6 +19394,12 @@
       <c r="G273" s="345" t="s">
         <v>680</v>
       </c>
+      <c r="L273" s="380" t="s">
+        <v>705</v>
+      </c>
+      <c r="O273" s="420">
+        <v>42708</v>
+      </c>
       <c r="P273" s="380" t="s">
         <v>700</v>
       </c>
@@ -19420,7 +19430,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="380" customFormat="1" hidden="1">
+    <row r="275" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A275" s="356">
         <v>273</v>
       </c>
@@ -19507,7 +19517,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="278" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
       <c r="A278" s="356">
         <v>276</v>
       </c>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="707">
   <si>
     <t>编号</t>
   </si>
@@ -5085,6 +5085,10 @@
   </si>
   <si>
     <t>没发现显示一下主菜单的问题，有会朗读一下部分列表界面标题的问题。修改了这个问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8392,7 +8396,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O273" sqref="O273"/>
+      <selection pane="bottomRight" activeCell="O256" sqref="O256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18775,7 +18779,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="361" customFormat="1" ht="54">
+    <row r="256" spans="1:16" s="361" customFormat="1" ht="54" hidden="1">
       <c r="A256" s="356">
         <v>254</v>
       </c>
@@ -18800,10 +18804,14 @@
       <c r="H256" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="L256" s="430"/>
+      <c r="L256" s="430" t="s">
+        <v>706</v>
+      </c>
       <c r="M256" s="430"/>
       <c r="N256" s="430"/>
-      <c r="O256" s="430"/>
+      <c r="O256" s="420">
+        <v>42708</v>
+      </c>
       <c r="P256" s="430" t="s">
         <v>442</v>
       </c>
@@ -19372,7 +19380,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="273" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A273" s="356">
         <v>271</v>
       </c>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="707">
   <si>
     <t>编号</t>
   </si>
@@ -8396,7 +8396,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O256" sqref="O256"/>
+      <selection pane="bottomRight" activeCell="O252" sqref="O252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18614,7 +18614,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="361" customFormat="1" ht="108">
+    <row r="252" spans="1:16" s="361" customFormat="1" ht="108" hidden="1">
       <c r="A252" s="356">
         <v>250</v>
       </c>
@@ -18639,10 +18639,14 @@
       <c r="H252" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="L252" s="430"/>
+      <c r="L252" s="430" t="s">
+        <v>706</v>
+      </c>
       <c r="M252" s="430"/>
       <c r="N252" s="430"/>
-      <c r="O252" s="430"/>
+      <c r="O252" s="432">
+        <v>42708</v>
+      </c>
       <c r="P252" s="430" t="s">
         <v>442</v>
       </c>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="706">
   <si>
     <t>编号</t>
   </si>
@@ -5069,10 +5069,6 @@
   </si>
   <si>
     <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j/z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8393,10 +8389,10 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O252" sqref="O252"/>
+      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18476,7 +18472,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="40.5" hidden="1">
+    <row r="248" spans="1:16" ht="40.5">
       <c r="A248" s="356">
         <v>246</v>
       </c>
@@ -18640,7 +18636,7 @@
         <v>269</v>
       </c>
       <c r="L252" s="430" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M252" s="430"/>
       <c r="N252" s="430"/>
@@ -18809,7 +18805,7 @@
         <v>269</v>
       </c>
       <c r="L256" s="430" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M256" s="430"/>
       <c r="N256" s="430"/>
@@ -19111,7 +19107,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="81" hidden="1">
+    <row r="264" spans="1:16" ht="81">
       <c r="A264" s="356">
         <v>262</v>
       </c>
@@ -19140,7 +19136,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5" hidden="1">
+    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5">
       <c r="A265" s="356">
         <v>263</v>
       </c>
@@ -19166,7 +19162,7 @@
         <v>269</v>
       </c>
       <c r="P265" s="380" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="54" hidden="1">
@@ -19195,7 +19191,7 @@
         <v>269</v>
       </c>
       <c r="L266" s="380" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O266" s="420">
         <v>42707</v>
@@ -19230,7 +19226,7 @@
         <v>269</v>
       </c>
       <c r="L267" s="380" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O267" s="420">
         <v>42707</v>
@@ -19262,7 +19258,7 @@
         <v>681</v>
       </c>
       <c r="L268" s="380" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O268" s="420">
         <v>42707</v>
@@ -19294,10 +19290,10 @@
         <v>684</v>
       </c>
       <c r="L269" s="380" t="s">
+        <v>702</v>
+      </c>
+      <c r="N269" s="380" t="s">
         <v>703</v>
-      </c>
-      <c r="N269" s="380" t="s">
-        <v>704</v>
       </c>
       <c r="O269" s="420">
         <v>42707</v>
@@ -19306,7 +19302,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5">
       <c r="A270" s="356">
         <v>268</v>
       </c>
@@ -19332,7 +19328,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="271" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A271" s="356">
         <v>269</v>
       </c>
@@ -19358,7 +19354,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5">
       <c r="A272" s="356">
         <v>270</v>
       </c>
@@ -19407,7 +19403,7 @@
         <v>680</v>
       </c>
       <c r="L273" s="380" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O273" s="420">
         <v>42708</v>
@@ -19416,7 +19412,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="274" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A274" s="356">
         <v>272</v>
       </c>
@@ -19442,7 +19438,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="275" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A275" s="356">
         <v>273</v>
       </c>
@@ -19471,7 +19467,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="276" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A276" s="356">
         <v>274</v>
       </c>
@@ -19497,10 +19493,10 @@
         <v>693</v>
       </c>
       <c r="P276" s="380" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A277" s="356">
         <v>275</v>
       </c>
@@ -19526,10 +19522,10 @@
         <v>693</v>
       </c>
       <c r="P277" s="380" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" s="380" customFormat="1" ht="54">
       <c r="A278" s="356">
         <v>276</v>
       </c>
@@ -19555,7 +19551,7 @@
         <v>693</v>
       </c>
       <c r="P278" s="380" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -19566,11 +19562,7 @@
     <filterColumn colId="11">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="z"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="709">
   <si>
     <t>编号</t>
   </si>
@@ -5089,6 +5089,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文件添加部分更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同问题262添加部分更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8389,10 +8401,10 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
+      <selection pane="bottomRight" activeCell="O272" sqref="O272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19132,6 +19144,15 @@
       <c r="H264" s="368" t="s">
         <v>269</v>
       </c>
+      <c r="L264" s="380" t="s">
+        <v>706</v>
+      </c>
+      <c r="N264" s="380" t="s">
+        <v>707</v>
+      </c>
+      <c r="O264" s="420">
+        <v>42709</v>
+      </c>
       <c r="P264" s="380" t="s">
         <v>699</v>
       </c>
@@ -19324,6 +19345,15 @@
       <c r="G270" s="345" t="s">
         <v>690</v>
       </c>
+      <c r="L270" s="380" t="s">
+        <v>706</v>
+      </c>
+      <c r="N270" s="380" t="s">
+        <v>708</v>
+      </c>
+      <c r="O270" s="420">
+        <v>42709</v>
+      </c>
       <c r="P270" s="380" t="s">
         <v>699</v>
       </c>
@@ -19350,6 +19380,15 @@
       <c r="G271" s="345" t="s">
         <v>685</v>
       </c>
+      <c r="L271" s="380" t="s">
+        <v>706</v>
+      </c>
+      <c r="N271" s="380" t="s">
+        <v>708</v>
+      </c>
+      <c r="O271" s="420">
+        <v>42709</v>
+      </c>
       <c r="P271" s="380" t="s">
         <v>699</v>
       </c>
@@ -19375,6 +19414,15 @@
       </c>
       <c r="G272" s="345" t="s">
         <v>686</v>
+      </c>
+      <c r="L272" s="380" t="s">
+        <v>706</v>
+      </c>
+      <c r="N272" s="380" t="s">
+        <v>708</v>
+      </c>
+      <c r="O272" s="420">
+        <v>42709</v>
       </c>
       <c r="P272" s="380" t="s">
         <v>699</v>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="714">
   <si>
     <t>编号</t>
   </si>
@@ -5101,6 +5101,26 @@
   </si>
   <si>
     <t>同问题262添加部分更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文档没有对书签进行部分查询导致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同问题274</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过讨论暂不改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8401,10 +8421,10 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O272" sqref="O272"/>
+      <selection pane="bottomRight" activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19511,6 +19531,15 @@
       <c r="H275" s="380" t="s">
         <v>693</v>
       </c>
+      <c r="L275" s="380" t="s">
+        <v>712</v>
+      </c>
+      <c r="N275" s="380" t="s">
+        <v>713</v>
+      </c>
+      <c r="O275" s="420">
+        <v>42710</v>
+      </c>
       <c r="P275" s="380" t="s">
         <v>699</v>
       </c>
@@ -19540,6 +19569,15 @@
       <c r="H276" s="380" t="s">
         <v>693</v>
       </c>
+      <c r="L276" s="380" t="s">
+        <v>709</v>
+      </c>
+      <c r="N276" s="380" t="s">
+        <v>710</v>
+      </c>
+      <c r="O276" s="420">
+        <v>42710</v>
+      </c>
       <c r="P276" s="380" t="s">
         <v>699</v>
       </c>
@@ -19597,6 +19635,15 @@
       </c>
       <c r="H278" s="380" t="s">
         <v>693</v>
+      </c>
+      <c r="L278" s="380" t="s">
+        <v>709</v>
+      </c>
+      <c r="N278" s="380" t="s">
+        <v>711</v>
+      </c>
+      <c r="O278" s="420">
+        <v>42710</v>
       </c>
       <c r="P278" s="380" t="s">
         <v>699</v>

--- a/测试单-电子书_txt-word_161124.xlsx
+++ b/测试单-电子书_txt-word_161124.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="716">
   <si>
     <t>编号</t>
   </si>
@@ -5121,6 +5121,14 @@
   </si>
   <si>
     <t>经过讨论暂不改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文件排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8421,10 +8429,10 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G274" sqref="G274"/>
+      <selection pane="bottomRight" activeCell="N248" sqref="N248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18529,9 +18537,13 @@
       <c r="H248" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="L248" s="379"/>
+      <c r="L248" s="379" t="s">
+        <v>714</v>
+      </c>
       <c r="M248" s="379"/>
-      <c r="N248" s="379"/>
+      <c r="N248" s="379" t="s">
+        <v>715</v>
+      </c>
       <c r="O248" s="379"/>
       <c r="P248" s="380" t="s">
         <v>376</v>
